--- a/04_Etude/2019/Tests Arduino_ESP32.xlsx
+++ b/04_Etude/2019/Tests Arduino_ESP32.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
-  <si>
-    <t>Checkliste des points de test Arduino et ESP32</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Enoncé</t>
   </si>
@@ -54,6 +51,15 @@
   </si>
   <si>
     <t>OUI</t>
+  </si>
+  <si>
+    <t>Les données envoyées par l'Arduino sont lues par l'ESP</t>
+  </si>
+  <si>
+    <t>Les données envoyées par Bluetooth sont reçues (2 sens)</t>
+  </si>
+  <si>
+    <t>Checklist des points de test Arduino et ESP32</t>
   </si>
 </sst>
 </file>
@@ -99,10 +105,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,85 +392,101 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="1" max="1" width="51" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
+      <c r="B10" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
